--- a/hotrod/docs/research/database-sql-access-plan.xlsx
+++ b/hotrod/docs/research/database-sql-access-plan.xlsx
@@ -20,357 +20,369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
-  <si>
-    <t>High End</t>
-  </si>
-  <si>
-    <t>Middle Tier</t>
-  </si>
-  <si>
-    <t>Subpar</t>
-  </si>
-  <si>
-    <t>Lightweight Tier</t>
-  </si>
-  <si>
-    <t>Access</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>DB2</t>
-  </si>
-  <si>
-    <t>PostgreSQL</t>
-  </si>
-  <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>MariaDB</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>SAP ASE</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>HyperSQL</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Full Table Scan</t>
-  </si>
-  <si>
-    <t>TABLE ACCESS FULL</t>
-  </si>
-  <si>
-    <t>TBSCAN</t>
-  </si>
-  <si>
-    <t>Seq Scan</t>
-  </si>
-  <si>
-    <t>Table Scan</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>TABLESCAN</t>
-  </si>
-  <si>
-    <t>access=FULL SCAN</t>
-  </si>
-  <si>
-    <t>/* ...tableScan</t>
-  </si>
-  <si>
-    <t>Index Only Scan</t>
-  </si>
-  <si>
-    <t>+Extra: “Using index”</t>
-  </si>
-  <si>
-    <t>Index Data Scan</t>
-  </si>
-  <si>
-    <t>INDEX FAST FULL SCAN</t>
-  </si>
-  <si>
-    <t>Index Full Scan</t>
-  </si>
-  <si>
-    <t>INDEX FULL SCAN</t>
-  </si>
-  <si>
-    <t>Index Scan *1</t>
-  </si>
-  <si>
-    <t>[Clustered] Index Scan</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index Range Scan</t>
-  </si>
-  <si>
-    <t>INDEX RANGE SCAN</t>
-  </si>
-  <si>
-    <t>IXSCAN</t>
-  </si>
-  <si>
-    <t>[Clustered] Index Seek</t>
-  </si>
-  <si>
-    <t>ref, range</t>
-  </si>
-  <si>
-    <t>CONSTRAINTSCAN</t>
-  </si>
-  <si>
-    <t>access=INDEX PRED</t>
-  </si>
-  <si>
-    <t>/* ...FK_INDEX</t>
-  </si>
-  <si>
-    <t>Index Unique Scan</t>
-  </si>
-  <si>
-    <t>INDEX UNIQUE SCAN</t>
-  </si>
-  <si>
-    <t>Key Lookup (Clustered)</t>
-  </si>
-  <si>
-    <t>eq_ref, const</t>
-  </si>
-  <si>
-    <t>/* ...PRIMARY_KEY_</t>
-  </si>
-  <si>
-    <t>Index Merge</t>
-  </si>
-  <si>
-    <t>IXAND</t>
-  </si>
-  <si>
-    <t>Bitmap Index Scan</t>
-  </si>
-  <si>
-    <t>Bitmap Index Scan *1</t>
-  </si>
-  <si>
-    <t>Bitmap Heap Scan</t>
-  </si>
-  <si>
-    <t>Bitmap Heap Scan *1</t>
-  </si>
-  <si>
-    <t>Fetch</t>
-  </si>
-  <si>
-    <t>TABLE ACCESS BY INDEX ROWID</t>
-  </si>
-  <si>
-    <t>FETCH</t>
-  </si>
-  <si>
-    <t>(implicit in Index Scan)</t>
-  </si>
-  <si>
-    <t>RID Lookup (heap)</t>
-  </si>
-  <si>
-    <t>(implicit in ref, eq_ref)</t>
-  </si>
-  <si>
-    <t>ROWIDSCAN</t>
-  </si>
-  <si>
-    <t>Filtering</t>
-  </si>
-  <si>
-    <t>Index Filter Predicate</t>
-  </si>
-  <si>
-    <t>Index Cond</t>
-  </si>
-  <si>
-    <t>Filter Predicate</t>
-  </si>
-  <si>
-    <t>Extra: “Using where”</t>
-  </si>
-  <si>
-    <t>FILTER</t>
-  </si>
-  <si>
-    <t>/* WHERE ...</t>
-  </si>
-  <si>
-    <t>Table Filter Predicate</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Joins</t>
-  </si>
-  <si>
-    <t>Nested Loop Join</t>
-  </si>
-  <si>
-    <t>NESTED LOOPS</t>
-  </si>
-  <si>
-    <t>NLJOIN</t>
-  </si>
-  <si>
-    <t>Nested Loop</t>
-  </si>
-  <si>
-    <t>Nested Loops (Inner...</t>
-  </si>
-  <si>
-    <t>join type=INNER</t>
-  </si>
-  <si>
-    <t>Nested Loop Outer Join</t>
-  </si>
-  <si>
-    <t>NESTED LOOPS OUTER</t>
-  </si>
-  <si>
-    <t>Nested Loop Left Join</t>
-  </si>
-  <si>
-    <t>Nested Loops (Outer...</t>
-  </si>
-  <si>
-    <t>join type=LEFT OUTER</t>
-  </si>
-  <si>
-    <t>Hash Join</t>
-  </si>
-  <si>
-    <t>HASH JOIN</t>
-  </si>
-  <si>
-    <t>Hash Match</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>HASHJOIN (includes filter)</t>
-  </si>
-  <si>
-    <t>Hash Outer Join</t>
-  </si>
-  <si>
-    <t>LOHASHJOIN</t>
-  </si>
-  <si>
-    <t>Table Hash</t>
-  </si>
-  <si>
-    <t>(implicit in HASH JOIN)</t>
-  </si>
-  <si>
-    <t>Hash</t>
-  </si>
-  <si>
-    <t>(implicit in Hash Match)</t>
-  </si>
-  <si>
-    <t>HASHSCAN</t>
-  </si>
-  <si>
-    <t>Merge Sort Join</t>
-  </si>
-  <si>
-    <t>MERGE JOIN</t>
-  </si>
-  <si>
-    <t>Merge Join</t>
-  </si>
-  <si>
-    <t>Aggregation</t>
-  </si>
-  <si>
-    <t>Group Presorted (pipe)</t>
-  </si>
-  <si>
-    <t>SORT GROUP BY NOSORT</t>
-  </si>
-  <si>
-    <t>GroupAggregate</t>
-  </si>
-  <si>
-    <t>Stream Aggregate</t>
-  </si>
-  <si>
-    <t>Group by Sorting (mem)</t>
-  </si>
-  <si>
-    <t>SORT GROUP BY</t>
-  </si>
-  <si>
-    <t>Group by Hashing (mem)</t>
-  </si>
-  <si>
-    <t>HASH GROUP BY</t>
-  </si>
-  <si>
-    <t>HashAggregate</t>
-  </si>
-  <si>
-    <t>Hash Match (Aggregate)</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Sort (mem)</t>
-  </si>
-  <si>
-    <t>SORT ORDER BY</t>
-  </si>
-  <si>
-    <t>SORT</t>
-  </si>
-  <si>
-    <t>Sort</t>
-  </si>
-  <si>
-    <t>Extra: “Using filesort”</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>COUNT STOPKEY, WINDOW NOSORT STOPKEY</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>RIDSCN (row ID scan)</t>
-  </si>
-  <si>
-    <t>*1 Includes the Fetch operations</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+  <si>
+    <t xml:space="preserve">High End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subpar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightweight Tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MariaDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP ASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Table Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLE ACCESS FULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seq Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Scan, Clustered Index Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLESCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access=FULL SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* ...tableScan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Only Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX RANGE SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Data Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX FAST FULL SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXSCAN &amp; Non-Positioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Full Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX FULL SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Scan *1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Clustered] Index Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Range Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Clustered] Index Seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref, range *1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRAINTSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">access=INDEX PRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* ...FK_INDEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Unique Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX UNIQUE SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Lookup (Clustered), Index Seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eq_ref, const *1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* ...PRIMARY_KEY_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX RANGE SCAN, INLIST ITERATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXAND, RIDSCN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BitmapOr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concatenation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra: Using sort_union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitmap Index Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitmap Heap Scan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLE ACCESS BY INDEX ROWID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FETCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RID Lookup (heap), Clustered Index Seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(implicit in ref, eq_ref)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROWIDSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Filter Predicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Cond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter Predicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra: “Using where”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* WHERE ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Filter Predicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested Loop Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTED LOOPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLJOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested Loops (Inner...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join type=INNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested Loop Outer Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTED LOOPS OUTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested Loop Left Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nested Loops (Outer...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join type=LEFT OUTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASH JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASHJOIN (includes filter)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Outer Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOHASHJOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(implicit in HASH JOIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(implicit in Hash Match)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASHSCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERGE JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Presorted (pipe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORT GROUP BY NOSORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GroupAggregate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stream Aggregate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group by Sorting (mem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORT GROUP BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRPBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group by Hashing (mem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASH GROUP BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashAggregate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hash Match (Aggregate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort (mem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORT ORDER BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra: “Using filesort”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT STOPKEY, WINDOW NOSORT STOPKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX SKIP SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*1 Includes the Fetch operations</t>
   </si>
 </sst>
 </file>
@@ -378,7 +390,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -496,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,6 +547,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -626,25 +646,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.35204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="9"/>
@@ -737,15 +758,19 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -754,18 +779,24 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7"/>
@@ -773,21 +804,21 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
-        <v>32</v>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -796,76 +827,86 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="7"/>
@@ -873,12 +914,12 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -890,13 +931,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -907,34 +946,34 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="8" t="s">
-        <v>57</v>
+      <c r="G12" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -968,13 +1007,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>60</v>
+      <c r="A14" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -985,8 +1024,8 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>62</v>
+      <c r="A15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -994,25 +1033,25 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>66</v>
+      <c r="A16" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1024,7 +1063,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -1059,86 +1098,86 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
@@ -1146,49 +1185,49 @@
       <c r="G21" s="7"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1199,7 +1238,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -1234,17 +1273,17 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1255,12 +1294,14 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1272,17 +1313,19 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="D27" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1293,7 +1336,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -1328,44 +1371,44 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1375,47 +1418,88 @@
       <c r="K30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
